--- a/example_data/EPA/label_corrected/092564-00039-20190621.xlsx
+++ b/example_data/EPA/label_corrected/092564-00039-20190621.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Env warning - species || Off Target Movement || Pollinator</t>
+          <t>env warning - species || pollinator || off target movement</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
